--- a/Libraries/Vehicle/Body/sm_car_data_Body.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306FB1AD-AE18-41AD-A049-C1F70F5719D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834151D9-A99B-4C04-AE46-7F41F100201F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10152" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,15 +67,9 @@
     <t>sedan</t>
   </si>
   <si>
-    <t>sAxleF</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>sAxleR</t>
-  </si>
-  <si>
     <t>sCG</t>
   </si>
   <si>
@@ -114,6 +110,12 @@
   </si>
   <si>
     <t>sHitchR</t>
+  </si>
+  <si>
+    <t>sAxle1</t>
+  </si>
+  <si>
+    <t>sAxle2</t>
   </si>
 </sst>
 </file>
@@ -561,12 +563,12 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +627,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -645,12 +647,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -665,12 +667,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="15">
         <v>-3.57</v>
@@ -685,12 +687,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="16">
         <v>-1.6</v>
@@ -705,12 +707,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="15">
         <v>-1.8</v>
@@ -725,12 +727,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="15">
         <f>-4.057+F17</f>
@@ -746,15 +748,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -765,12 +767,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -781,15 +783,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="16">
         <v>930</v>
@@ -822,10 +824,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +886,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -904,12 +906,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -924,12 +926,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="15">
         <v>-2.8239999999999998</v>
@@ -944,12 +946,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="18">
         <v>-1.2</v>
@@ -961,18 +963,18 @@
         <v>0.42249999999999999</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="19">
         <v>-1.4</v>
@@ -987,12 +989,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="15">
         <v>-4.0540000000000003</v>
@@ -1007,15 +1009,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1026,12 +1028,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1042,15 +1044,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="18">
         <v>432</v>
@@ -1081,12 +1083,12 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1147,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1165,12 +1167,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
@@ -1185,12 +1187,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="15">
         <v>-6.7816159999999996</v>
@@ -1205,12 +1207,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="18">
         <v>-4</v>
@@ -1222,18 +1224,18 @@
         <v>1</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="19">
         <v>-1.4</v>
@@ -1248,12 +1250,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="15">
         <v>-9.7569999999999997</v>
@@ -1268,15 +1270,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1288,12 +1290,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1301,21 +1303,21 @@
         <v>2550</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="21">
         <v>930</v>

--- a/Libraries/Vehicle/Body/sm_car_data_Body.xlsx
+++ b/Libraries/Vehicle/Body/sm_car_data_Body.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834151D9-A99B-4C04-AE46-7F41F100201F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F670DBD-FA1A-474B-A00E-6FA1EBA1249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10152" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="31950" yWindow="2520" windowWidth="20595" windowHeight="11235" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -201,19 +201,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -223,13 +220,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -262,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +298,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,28 +557,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -602,209 +598,201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>-3.57</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>-1.6</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
         <v>0.42249999999999999</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>-1.8</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>-4.057+F17</f>
         <v>-4.8030000000000008</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <v>2.1800000000000002</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>2550</v>
       </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>930</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>3320</v>
       </c>
-      <c r="H12" s="16">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="23">
+      <c r="H12" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="21">
         <f>F6-Sedan_Hamba!F6</f>
         <v>-0.746</v>
       </c>
@@ -820,7 +808,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -830,18 +818,18 @@
       <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -861,214 +849,200 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>-2.8239999999999998</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>-1.2</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>0.42249999999999999</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>-4.0540000000000003</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <v>1.869</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>1500</v>
       </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>432</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>1922.7</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <v>2066</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,7 +1055,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1091,18 +1065,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1122,218 +1096,204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>-6.7816159999999996</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>-4</v>
       </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>-1.4</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>-9.7569999999999997</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>0.40300000000000002</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16">
         <f>2.5+0.2</f>
         <v>2.7</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="19">
         <v>2550</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>930</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>3320</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>3990</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
